--- a/LubanTools/DesignerConfigs/Datas/Building/building_config.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Building/building_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -50,6 +50,9 @@
     <t>functionType</t>
   </si>
   <si>
+    <t>FunctionId</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>建筑类型</t>
   </si>
   <si>
+    <t>功能id</t>
+  </si>
+  <si>
     <t>游客中心</t>
   </si>
   <si>
@@ -117,6 +123,9 @@
   </si>
   <si>
     <t>油田</t>
+  </si>
+  <si>
+    <t>210001</t>
   </si>
 </sst>
 </file>
@@ -1167,13 +1176,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
@@ -1181,13 +1190,13 @@
     <col min="4" max="4" width="20.125" style="2" customWidth="1"/>
     <col min="5" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="40.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="44" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1209,83 +1218,95 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>200001</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" ref="D5:D12" si="0">"building_"&amp;B5</f>
@@ -1298,16 +1319,17 @@
         <v>3</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>200002</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1320,16 +1342,17 @@
         <v>3</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>200003</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1344,14 +1367,15 @@
       <c r="G7" s="7">
         <v>3</v>
       </c>
+      <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
         <v>200004</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1366,14 +1390,15 @@
       <c r="G8" s="7">
         <v>4</v>
       </c>
+      <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="7">
         <v>200005</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1388,14 +1413,15 @@
       <c r="G9" s="7">
         <v>5</v>
       </c>
+      <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="7">
         <v>200006</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1410,14 +1436,15 @@
       <c r="G10" s="7">
         <v>5</v>
       </c>
+      <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="7">
         <v>200007</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1432,14 +1459,15 @@
       <c r="G11" s="7">
         <v>5</v>
       </c>
+      <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="7">
         <v>200008</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1453,6 +1481,9 @@
       </c>
       <c r="G12" s="7">
         <v>6</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/LubanTools/DesignerConfigs/Datas/Building/building_config.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Building/building_config.xlsx
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/LubanTools/DesignerConfigs/Datas/Building/building_config.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Building/building_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -116,10 +116,19 @@
     <t>解密</t>
   </si>
   <si>
+    <t>220001</t>
+  </si>
+  <si>
     <t>咖啡</t>
   </si>
   <si>
+    <t>220002</t>
+  </si>
+  <si>
     <t>天文台</t>
+  </si>
+  <si>
+    <t>220003</t>
   </si>
   <si>
     <t>油田</t>
@@ -1179,7 +1188,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1413,7 +1422,9 @@
       <c r="G9" s="7">
         <v>5</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7"/>
@@ -1421,7 +1432,7 @@
         <v>200006</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1436,7 +1447,9 @@
       <c r="G10" s="7">
         <v>5</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="7"/>
@@ -1444,7 +1457,7 @@
         <v>200007</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1459,7 +1472,9 @@
       <c r="G11" s="7">
         <v>5</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7"/>
@@ -1467,7 +1482,7 @@
         <v>200008</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1483,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/LubanTools/DesignerConfigs/Datas/Building/building_config.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Building/building_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -50,9 +50,6 @@
     <t>functionType</t>
   </si>
   <si>
-    <t>FunctionId</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>建筑类型</t>
   </si>
   <si>
-    <t>功能id</t>
-  </si>
-  <si>
     <t>游客中心</t>
   </si>
   <si>
@@ -116,25 +110,13 @@
     <t>解密</t>
   </si>
   <si>
-    <t>220001</t>
-  </si>
-  <si>
     <t>咖啡</t>
   </si>
   <si>
-    <t>220002</t>
-  </si>
-  <si>
     <t>天文台</t>
   </si>
   <si>
-    <t>220003</t>
-  </si>
-  <si>
     <t>油田</t>
-  </si>
-  <si>
-    <t>210001</t>
   </si>
 </sst>
 </file>
@@ -1185,13 +1167,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
@@ -1199,13 +1181,13 @@
     <col min="4" max="4" width="20.125" style="2" customWidth="1"/>
     <col min="5" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="40.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="44" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1227,95 +1209,83 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>200001</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" ref="D5:D12" si="0">"building_"&amp;B5</f>
@@ -1328,17 +1298,16 @@
         <v>3</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="10"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>200002</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1351,17 +1320,16 @@
         <v>3</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="10"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>200003</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1376,15 +1344,14 @@
       <c r="G7" s="7">
         <v>3</v>
       </c>
-      <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
         <v>200004</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1399,15 +1366,14 @@
       <c r="G8" s="7">
         <v>4</v>
       </c>
-      <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="B9" s="7">
         <v>200005</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1422,17 +1388,14 @@
       <c r="G9" s="7">
         <v>5</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="B10" s="7">
         <v>200006</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1447,17 +1410,14 @@
       <c r="G10" s="7">
         <v>5</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="7"/>
       <c r="B11" s="7">
         <v>200007</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1472,17 +1432,14 @@
       <c r="G11" s="7">
         <v>5</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="B12" s="7">
         <v>200008</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1496,9 +1453,6 @@
       </c>
       <c r="G12" s="7">
         <v>6</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/LubanTools/DesignerConfigs/Datas/Building/building_config.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/Building/building_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -50,6 +50,9 @@
     <t>functionType</t>
   </si>
   <si>
+    <t>FunctionId</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>建筑类型</t>
   </si>
   <si>
+    <t>功能id</t>
+  </si>
+  <si>
     <t>游客中心</t>
   </si>
   <si>
@@ -110,13 +116,25 @@
     <t>解密</t>
   </si>
   <si>
+    <t>220001</t>
+  </si>
+  <si>
     <t>咖啡</t>
   </si>
   <si>
+    <t>220002</t>
+  </si>
+  <si>
     <t>天文台</t>
   </si>
   <si>
+    <t>220003</t>
+  </si>
+  <si>
     <t>油田</t>
+  </si>
+  <si>
+    <t>210001</t>
   </si>
 </sst>
 </file>
@@ -1167,13 +1185,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
@@ -1181,13 +1199,13 @@
     <col min="4" max="4" width="20.125" style="2" customWidth="1"/>
     <col min="5" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="40.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="44" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1209,83 +1227,95 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>200001</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" ref="D5:D12" si="0">"building_"&amp;B5</f>
@@ -1298,16 +1328,17 @@
         <v>3</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>200002</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1320,16 +1351,17 @@
         <v>3</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="7"/>
       <c r="B7" s="7">
         <v>200003</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1344,14 +1376,15 @@
       <c r="G7" s="7">
         <v>3</v>
       </c>
+      <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="7"/>
       <c r="B8" s="7">
         <v>200004</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1366,14 +1399,15 @@
       <c r="G8" s="7">
         <v>4</v>
       </c>
+      <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="7">
         <v>200005</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1388,14 +1422,17 @@
       <c r="G9" s="7">
         <v>5</v>
       </c>
+      <c r="H9" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="7"/>
       <c r="B10" s="7">
         <v>200006</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1410,14 +1447,17 @@
       <c r="G10" s="7">
         <v>5</v>
       </c>
+      <c r="H10" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="7"/>
       <c r="B11" s="7">
         <v>200007</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1432,14 +1472,17 @@
       <c r="G11" s="7">
         <v>5</v>
       </c>
+      <c r="H11" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="7"/>
       <c r="B12" s="7">
         <v>200008</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1453,6 +1496,9 @@
       </c>
       <c r="G12" s="7">
         <v>6</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
